--- a/workspace_2/graph/table_data/distances_table_data.xlsx
+++ b/workspace_2/graph/table_data/distances_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -89,8 +89,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="true"/>
-    <col min="2" max="2" width="12.796875" customWidth="true"/>
-    <col min="3" max="3" width="9.796875" customWidth="true"/>
+    <col min="2" max="2" width="5.86328125" customWidth="true"/>
+    <col min="3" max="3" width="7.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,10 +109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.78358637545705534</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="C2" s="0">
-        <v>0.36799999999999961</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -120,10 +120,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>39.555680994058804</v>
+        <v>39.560000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>40.127416997969519</v>
+        <v>40.130000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -131,10 +131,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>42.418592920353987</v>
+        <v>42.420000000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>42.780000000000015</v>
+        <v>42.780000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -142,7 +142,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>1.6420629577689496</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
@@ -153,7 +153,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0969441388060368</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>

--- a/workspace_2/graph/table_data/distances_table_data.xlsx
+++ b/workspace_2/graph/table_data/distances_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -109,10 +109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.78000000000000003</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0.37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -120,10 +120,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>39.560000000000002</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C3" s="0">
-        <v>40.130000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -131,10 +131,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>42.420000000000002</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>42.780000000000001</v>
+        <v>2.1699999999999999</v>
       </c>
     </row>
     <row r="5">

--- a/workspace_2/graph/table_data/distances_table_data.xlsx
+++ b/workspace_2/graph/table_data/distances_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="448" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -88,9 +88,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true"/>
-    <col min="2" max="2" width="5.86328125" customWidth="true"/>
-    <col min="3" max="3" width="7.33203125" customWidth="true"/>
+    <col min="1" max="1" width="12.85546875" customWidth="true"/>
+    <col min="2" max="2" width="6.140625" customWidth="true"/>
+    <col min="3" max="3" width="7.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
